--- a/ЭП/LR1_p2.xlsx
+++ b/ЭП/LR1_p2.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUD_FILES\BSUIR\KURS2\university-stuff\ЭП\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3DE74F-E8F8-450D-98C6-A4F43145F66C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC91E18-E5B8-4A61-B3A4-EAC0EF6BD626}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -708,7 +713,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$15</c:f>
+              <c:f>Sheet1!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -743,7 +748,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$I$16</c:f>
+              <c:f>Sheet1!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -776,7 +781,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$I$17</c:f>
+              <c:f>Sheet1!$B$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -936,7 +941,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$23</c:f>
+              <c:f>Sheet1!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -971,7 +976,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$J$24</c:f>
+              <c:f>Sheet1!$B$23:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1007,7 +1012,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$J$25</c:f>
+              <c:f>Sheet1!$B$24:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1359,10 +1364,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$38:$G$38</c:f>
+              <c:f>Sheet1!$B$33:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1374,39 +1379,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$39:$G$39</c:f>
+              <c:f>Sheet1!$B$34:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.26</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,7 +1623,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$37</c:f>
+              <c:f>Sheet1!$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1665,7 +1658,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$38:$G$38</c:f>
+              <c:f>Sheet1!$B$39:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1692,7 +1685,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$39:$G$39</c:f>
+              <c:f>Sheet1!$B$40:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2061,7 +2054,7 @@
                   <c:v>Iэ=f(Uэк)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Iб=0,3</c:v>
+                  <c:v>Iб=0,1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2121,19 +2114,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2150,14 +2143,14 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$50:$B$50</c:f>
+              <c:f>Sheet1!$A$49:$B$49</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Iэ=f(Uэк)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Iб=0,6</c:v>
+                  <c:v>Iб=0,2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2188,48 +2181,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Sheet1!$B$50:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$B$51:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>12.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$52:$F$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5687,10 +5680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="151" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5875,69 +5868,69 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0.1</v>
-      </c>
-      <c r="D16">
-        <v>0.2</v>
-      </c>
-      <c r="E16">
-        <v>0.3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <v>0.3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>2</v>
       </c>
-      <c r="D17">
+      <c r="H17">
         <v>3</v>
       </c>
-      <c r="E17">
+      <c r="I17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -6013,75 +6006,75 @@
         <v>10.5</v>
       </c>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>0.2</v>
+      </c>
+      <c r="E23">
+        <v>0.3</v>
+      </c>
+      <c r="F23">
+        <v>0.4</v>
+      </c>
+      <c r="G23">
+        <v>0.5</v>
+      </c>
+      <c r="H23">
+        <v>0.6</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D24">
-        <v>0.2</v>
+        <v>10.4</v>
       </c>
       <c r="E24">
-        <v>0.3</v>
+        <v>14.4</v>
       </c>
       <c r="F24">
-        <v>0.4</v>
+        <v>15.2</v>
       </c>
       <c r="G24">
-        <v>0.5</v>
+        <v>15.6</v>
       </c>
       <c r="H24">
-        <v>0.6</v>
+        <v>16</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D25">
-        <v>10.4</v>
-      </c>
-      <c r="E25">
-        <v>14.4</v>
-      </c>
-      <c r="F25">
-        <v>15.2</v>
-      </c>
-      <c r="G25">
-        <v>15.6</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
-      </c>
-      <c r="I25">
-        <v>16</v>
-      </c>
-      <c r="J25">
         <v>16</v>
       </c>
     </row>
@@ -6151,57 +6144,57 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0.1</v>
-      </c>
-      <c r="D38">
-        <v>0.2</v>
-      </c>
-      <c r="E38">
-        <v>0.3</v>
-      </c>
-      <c r="F38">
-        <v>0.4</v>
-      </c>
-      <c r="G38">
-        <v>0.5</v>
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0.1</v>
+      </c>
+      <c r="D39">
+        <v>0.2</v>
+      </c>
+      <c r="E39">
+        <v>0.3</v>
+      </c>
+      <c r="F39">
+        <v>0.4</v>
+      </c>
+      <c r="G39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>0.16</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>0.2</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>0.23</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>0.25</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>0.26</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>0.26</v>
       </c>
     </row>
@@ -6252,7 +6245,7 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -6280,67 +6273,72 @@
         <v>15</v>
       </c>
       <c r="B48">
-        <v>4.4000000000000004</v>
+        <f>4.4/2</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C48">
-        <v>8.4</v>
+        <f>8.4/2</f>
+        <v>4.2</v>
       </c>
       <c r="D48">
-        <v>14</v>
+        <f>14/2</f>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>18</v>
+        <f>18/2</f>
+        <v>9</v>
       </c>
       <c r="F48">
-        <v>20</v>
+        <f>20/2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>0.03</v>
+      </c>
+      <c r="C50">
+        <v>0.1</v>
+      </c>
+      <c r="D50">
+        <v>0.2</v>
+      </c>
+      <c r="E50">
+        <v>0.3</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>0.03</v>
+        <v>1.6</v>
       </c>
       <c r="C51">
-        <v>0.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D51">
-        <v>0.2</v>
+        <v>8</v>
       </c>
       <c r="E51">
-        <v>0.3</v>
+        <v>12.4</v>
       </c>
       <c r="F51">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
         <v>15</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52">
-        <v>6.4</v>
-      </c>
-      <c r="D52">
-        <v>12</v>
-      </c>
-      <c r="E52">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F52">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ЭП/LR1_p2.xlsx
+++ b/ЭП/LR1_p2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUD_FILES\BSUIR\KURS2\university-stuff\ЭП\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC91E18-E5B8-4A61-B3A4-EAC0EF6BD626}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DDDE89-1CDC-4768-A464-4C3EC0D43919}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>I=f(Uбэ)</t>
   </si>
@@ -88,6 +88,21 @@
   <si>
     <t>Iб=0,1</t>
   </si>
+  <si>
+    <t>dIэ</t>
+  </si>
+  <si>
+    <t>Iэ=f(Iб)</t>
+  </si>
+  <si>
+    <t>dIб</t>
+  </si>
+  <si>
+    <t>h21</t>
+  </si>
+  <si>
+    <t>Uкэ=2</t>
+  </si>
 </sst>
 </file>
 
@@ -122,8 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,10 +1346,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Iк=f(Iб)</c:v>
+                  <c:v>Iэ=f(Iб)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Uкэ=5</c:v>
+                  <c:v>Uкэ=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1393,13 +1409,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,7 +1639,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$38</c:f>
+              <c:f>Sheet1!$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1658,7 +1674,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$39:$G$39</c:f>
+              <c:f>Sheet1!$B$43:$G$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1685,7 +1701,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$40:$G$40</c:f>
+              <c:f>Sheet1!$B$44:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1722,7 +1738,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$41</c:f>
+              <c:f>Sheet1!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1757,7 +1773,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$42:$E$42</c:f>
+              <c:f>Sheet1!$B$46:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1778,7 +1794,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$43:$E$43</c:f>
+              <c:f>Sheet1!$B$47:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2047,7 +2063,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$46:$B$46</c:f>
+              <c:f>Sheet1!$A$50:$B$50</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2085,7 +2101,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$47:$F$47</c:f>
+              <c:f>Sheet1!$B$51:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2109,7 +2125,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$48:$F$48</c:f>
+              <c:f>Sheet1!$B$52:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2143,7 +2159,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$49:$B$49</c:f>
+              <c:f>Sheet1!$A$53:$B$53</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2181,7 +2197,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$50:$F$50</c:f>
+              <c:f>Sheet1!$B$54:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2205,7 +2221,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$51:$F$51</c:f>
+              <c:f>Sheet1!$B$55:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5680,10 +5696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6104,10 +6120,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6126,218 +6142,287 @@
       <c r="E33">
         <v>0.3</v>
       </c>
+      <c r="F33">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>6.2</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F34" s="1">
+        <v>14.2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <f>C34-B34</f>
+        <v>2.4</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:E35" si="0">D34-C34</f>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999991</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <f>C33-B33</f>
         <v>0.1</v>
       </c>
-      <c r="D39">
-        <v>0.2</v>
-      </c>
-      <c r="E39">
-        <v>0.3</v>
-      </c>
-      <c r="F39">
-        <v>0.4</v>
-      </c>
-      <c r="G39">
-        <v>0.5</v>
+      <c r="C36">
+        <f t="shared" ref="C36:D36" si="1">D33-C33</f>
+        <v>0.1</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36" si="2">F33-E33</f>
+        <v>0.10000000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40">
-        <v>0.16</v>
-      </c>
-      <c r="C40">
-        <v>0.2</v>
-      </c>
-      <c r="D40">
-        <v>0.23</v>
-      </c>
-      <c r="E40">
-        <v>0.25</v>
-      </c>
-      <c r="F40">
-        <v>0.26</v>
-      </c>
-      <c r="G40">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <f>B35/B36</f>
+        <v>23.999999999999996</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:E37" si="3">C35/C36</f>
+        <v>38</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>19.999999999999996</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>59.999999999999979</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0.12</v>
-      </c>
-      <c r="D42">
-        <v>0.22</v>
-      </c>
-      <c r="E42">
-        <v>0.3</v>
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0.1</v>
+      </c>
+      <c r="D43">
+        <v>0.2</v>
+      </c>
+      <c r="E43">
+        <v>0.3</v>
+      </c>
+      <c r="F43">
+        <v>0.4</v>
+      </c>
+      <c r="G43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>4</v>
       </c>
-      <c r="B43">
+      <c r="B44">
+        <v>0.16</v>
+      </c>
+      <c r="C44">
         <v>0.2</v>
       </c>
-      <c r="C43">
-        <v>0.24</v>
-      </c>
-      <c r="D43">
-        <v>0.27</v>
-      </c>
-      <c r="E43">
-        <v>0.28000000000000003</v>
+      <c r="D44">
+        <v>0.23</v>
+      </c>
+      <c r="E44">
+        <v>0.25</v>
+      </c>
+      <c r="F44">
+        <v>0.26</v>
+      </c>
+      <c r="G44">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0.12</v>
+      </c>
+      <c r="D46">
+        <v>0.22</v>
+      </c>
+      <c r="E46">
+        <v>0.3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B47">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C47">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="D47">
+        <v>0.27</v>
+      </c>
+      <c r="E47">
         <v>0.28000000000000003</v>
-      </c>
-      <c r="E47">
-        <v>0.4</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48">
-        <f>4.4/2</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C48">
-        <f>8.4/2</f>
-        <v>4.2</v>
-      </c>
-      <c r="D48">
-        <f>14/2</f>
-        <v>7</v>
-      </c>
-      <c r="E48">
-        <f>18/2</f>
-        <v>9</v>
-      </c>
-      <c r="F48">
-        <f>20/2</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50">
-        <v>0.03</v>
-      </c>
-      <c r="C50">
-        <v>0.1</v>
-      </c>
-      <c r="D50">
-        <v>0.2</v>
-      </c>
-      <c r="E50">
-        <v>0.3</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>0.1</v>
+      </c>
+      <c r="C51">
+        <v>0.18</v>
+      </c>
+      <c r="D51">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E51">
+        <v>0.4</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>15</v>
       </c>
-      <c r="B51">
+      <c r="B52">
+        <f>4.4/2</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C52">
+        <f>8.4/2</f>
+        <v>4.2</v>
+      </c>
+      <c r="D52">
+        <f>14/2</f>
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <f>18/2</f>
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <f>20/2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>0.03</v>
+      </c>
+      <c r="C54">
+        <v>0.1</v>
+      </c>
+      <c r="D54">
+        <v>0.2</v>
+      </c>
+      <c r="E54">
+        <v>0.3</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
         <v>1.6</v>
       </c>
-      <c r="C51">
+      <c r="C55">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D51">
+      <c r="D55">
         <v>8</v>
       </c>
-      <c r="E51">
+      <c r="E55">
         <v>12.4</v>
       </c>
-      <c r="F51">
+      <c r="F55">
         <v>15</v>
       </c>
     </row>
